--- a/data/trans_camb/P16A17-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16A17-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P16A17-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16A17-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -868,27 +868,27 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>0,48</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>0,03</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,48</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,03</t>
         </is>
       </c>
     </row>
@@ -921,12 +921,12 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,15; 1,43</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 0,14</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -936,12 +936,12 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,15; 1,43</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 0,14</t>
         </is>
       </c>
     </row>
@@ -974,12 +974,12 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -989,12 +989,12 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -1079,32 +1079,32 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,63</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,88</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,75</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,63</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,88</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,75</t>
         </is>
       </c>
     </row>
@@ -1132,32 +1132,32 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,66; 0,1</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,83; -0,13</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,74; -0,02</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,66; 0,1</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,83; -0,13</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,74; -0,02</t>
         </is>
       </c>
     </row>
@@ -1185,32 +1185,32 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-61,06%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-84,55%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-72,65%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-61,06%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-84,55%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-72,65%</t>
         </is>
       </c>
     </row>
@@ -1238,32 +1238,32 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 56,8</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 149,99</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 49,6</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 56,8</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 149,99</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 49,6</t>
         </is>
       </c>
     </row>
@@ -1295,32 +1295,32 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,26</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,7</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,34</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,26</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,7</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,34</t>
         </is>
       </c>
     </row>
@@ -1348,32 +1348,32 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,4; 3,3</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,07; 0,39</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,74; 0,73</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,4; 3,3</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,07; 0,39</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,74; 0,73</t>
         </is>
       </c>
     </row>
@@ -1401,32 +1401,32 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>84,63%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-47,22%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-23,0%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>84,63%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-47,22%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-23,0%</t>
         </is>
       </c>
     </row>
@@ -1454,32 +1454,32 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,7; 376,67</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-88,95; 69,74</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-69,13; 128,68</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,7; 376,67</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-88,95; 69,74</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-69,13; 128,68</t>
         </is>
       </c>
     </row>
@@ -1511,32 +1511,32 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,74</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,04</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,29</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,74</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,04</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,29</t>
         </is>
       </c>
     </row>
@@ -1564,32 +1564,32 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,45; -0,6</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,77; 0,42</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,13; -0,06</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,45; -0,6</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,77; 0,42</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,13; -0,06</t>
         </is>
       </c>
     </row>
@@ -1617,32 +1617,32 @@
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-89,02%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-53,16%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-66,33%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-89,02%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-53,16%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-66,33%</t>
         </is>
       </c>
     </row>
@@ -1670,32 +1670,32 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -4,82</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-91,23; 63,15</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-90,88; 14,81</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -4,82</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-91,23; 63,15</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-90,88; 14,81</t>
         </is>
       </c>
     </row>
@@ -1727,32 +1727,32 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,06</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,06</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,06</t>
         </is>
       </c>
     </row>
@@ -1780,32 +1780,32 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,74; 0,29</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,37; 1,09</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,66; 0,43</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,74; 0,29</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,37; 1,09</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,66; 0,43</t>
         </is>
       </c>
     </row>
@@ -1833,32 +1833,32 @@
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-30,71%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>187,91%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,57%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-30,71%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>187,91%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,57%</t>
         </is>
       </c>
     </row>
@@ -1943,32 +1943,32 @@
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,2</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,27</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,2</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,27</t>
         </is>
       </c>
     </row>
@@ -1996,32 +1996,32 @@
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,5; 0,3</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,61; 0,16</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,65; 0,02</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,5; 0,3</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,61; 0,16</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,65; 0,02</t>
         </is>
       </c>
     </row>
@@ -2049,32 +2049,32 @@
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,99%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-28,45%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-37,31%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,99%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-28,45%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-37,31%</t>
         </is>
       </c>
     </row>
@@ -2102,32 +2102,32 @@
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,96; 68,14</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,32; 35,9</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,56; 12,14</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,96; 68,14</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,32; 35,9</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,56; 12,14</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16A17-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16A17-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,14</t>
+          <t>0,0; 0,15</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,14</t>
+          <t>0,0; 0,15</t>
         </is>
       </c>
     </row>
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,75</t>
+          <t>-0,77</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-0,75</t>
+          <t>-0,77</t>
         </is>
       </c>
     </row>
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,74; -0,02</t>
+          <t>-1,76; -0,04</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,74; -0,02</t>
+          <t>-1,76; -0,04</t>
         </is>
       </c>
     </row>
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-72,65%</t>
+          <t>-73,89%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-72,65%</t>
+          <t>-73,89%</t>
         </is>
       </c>
     </row>
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 49,6</t>
+          <t>-100,0; 45,01</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,14 +1263,14 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 49,6</t>
+          <t>-100,0; 45,01</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-0,34</t>
+          <t>-0,39</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-0,34</t>
+          <t>-0,39</t>
         </is>
       </c>
     </row>
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 0,73</t>
+          <t>-1,77; 0,67</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 0,73</t>
+          <t>-1,77; 0,67</t>
         </is>
       </c>
     </row>
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-23,0%</t>
+          <t>-25,99%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-23,0%</t>
+          <t>-25,99%</t>
         </is>
       </c>
     </row>
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-69,13; 128,68</t>
+          <t>-70,96; 120,16</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,14 +1479,14 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-69,13; 128,68</t>
+          <t>-70,96; 120,16</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-3,13; -0,06</t>
+          <t>-3,1; -0,06</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-3,13; -0,06</t>
+          <t>-3,1; -0,06</t>
         </is>
       </c>
     </row>
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-66,33%</t>
+          <t>-65,95%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-66,33%</t>
+          <t>-65,95%</t>
         </is>
       </c>
     </row>
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-90,88; 14,81</t>
+          <t>-91,04; 10,11</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,14 +1695,14 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-90,88; 14,81</t>
+          <t>-91,04; 10,11</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1727,32 +1727,32 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-0,06</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,39</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>-0,06</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,39</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>0,16</t>
         </is>
       </c>
     </row>
@@ -1780,32 +1780,32 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 0,29</t>
+          <t>0,0; 1,84</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 1,09</t>
+          <t>0,0; 1,9</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 0,43</t>
+          <t>0,0; 0,65</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 0,29</t>
+          <t>0,0; 1,84</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 1,09</t>
+          <t>0,0; 1,9</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 0,43</t>
+          <t>0,0; 0,65</t>
         </is>
       </c>
     </row>
@@ -1833,32 +1833,32 @@
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-30,71%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>187,91%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>28,57%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>-30,71%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>187,91%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>28,57%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -1918,7 +1918,7 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1943,32 +1943,32 @@
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-0,1</t>
+          <t>-0,42</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-0,2</t>
+          <t>0,24</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-0,27</t>
+          <t>-0,08</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>-0,1</t>
+          <t>-0,42</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>-0,2</t>
+          <t>0,24</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>-0,27</t>
+          <t>-0,08</t>
         </is>
       </c>
     </row>
@@ -1996,32 +1996,32 @@
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 0,3</t>
+          <t>-1,88; 0,0</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 0,16</t>
+          <t>-0,94; 1,37</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 0,02</t>
+          <t>-1,69; 0,54</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 0,3</t>
+          <t>-1,88; 0,0</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 0,16</t>
+          <t>-0,94; 1,37</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 0,02</t>
+          <t>-1,69; 0,54</t>
         </is>
       </c>
     </row>
@@ -2049,32 +2049,32 @@
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-13,99%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-28,45%</t>
+          <t>56,27%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-37,31%</t>
+          <t>-20,05%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>-13,99%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>-28,45%</t>
+          <t>56,27%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>-37,31%</t>
+          <t>-20,05%</t>
         </is>
       </c>
     </row>
@@ -2102,44 +2102,261 @@
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>-0,1</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>-0,2</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>-0,29</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>-0,1</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>-0,2</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>-0,29</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>-0,5; 0,3</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>-0,61; 0,16</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-0,67; -0,0</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>-0,5; 0,3</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>-0,61; 0,16</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>-0,67; -0,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>-13,99%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>-28,45%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>-40,73%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>-13,99%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>-28,45%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>-40,73%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
           <t>-54,96; 68,14</t>
         </is>
       </c>
-      <c r="G31" s="2" t="inlineStr">
+      <c r="G35" s="2" t="inlineStr">
         <is>
           <t>-63,32; 35,9</t>
         </is>
       </c>
-      <c r="H31" s="2" t="inlineStr">
-        <is>
-          <t>-63,56; 12,14</t>
-        </is>
-      </c>
-      <c r="I31" s="2" t="inlineStr">
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>-66,64; 4,1</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
         <is>
           <t>-54,96; 68,14</t>
         </is>
       </c>
-      <c r="J31" s="2" t="inlineStr">
+      <c r="J35" s="2" t="inlineStr">
         <is>
           <t>-63,32; 35,9</t>
         </is>
       </c>
-      <c r="K31" s="2" t="inlineStr">
-        <is>
-          <t>-63,56; 12,14</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>-66,64; 4,1</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>

--- a/data/trans_camb/P16A17-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16A17-Edad-trans_camb.xlsx
@@ -921,12 +921,12 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,15; 1,43</t>
+          <t>0,15; 1,31</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,15</t>
+          <t>0,0; 0,18</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -936,12 +936,12 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,15; 1,43</t>
+          <t>0,15; 1,31</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,15</t>
+          <t>0,0; 0,18</t>
         </is>
       </c>
     </row>
@@ -1132,32 +1132,32 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 0,1</t>
+          <t>-1,7; 0,19</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,83; -0,13</t>
+          <t>-1,89; -0,18</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,76; -0,04</t>
+          <t>-1,75; -0,03</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 0,1</t>
+          <t>-1,7; 0,19</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,83; -0,13</t>
+          <t>-1,89; -0,18</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,76; -0,04</t>
+          <t>-1,75; -0,03</t>
         </is>
       </c>
     </row>
@@ -1238,32 +1238,32 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 56,8</t>
+          <t>-93,18; 99,13</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 149,99</t>
+          <t>-100,0; 133,64</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 45,01</t>
+          <t>-100,0; 48,52</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 56,8</t>
+          <t>-93,18; 99,13</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 149,99</t>
+          <t>-100,0; 133,64</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 45,01</t>
+          <t>-100,0; 48,52</t>
         </is>
       </c>
     </row>
@@ -1348,32 +1348,32 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 3,3</t>
+          <t>-0,37; 3,3</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 0,39</t>
+          <t>-1,99; 0,37</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 0,67</t>
+          <t>-1,69; 0,72</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 3,3</t>
+          <t>-0,37; 3,3</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 0,39</t>
+          <t>-1,99; 0,37</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 0,67</t>
+          <t>-1,69; 0,72</t>
         </is>
       </c>
     </row>
@@ -1454,32 +1454,32 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-26,7; 376,67</t>
+          <t>-23,99; 439,27</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-88,95; 69,74</t>
+          <t>-86,96; 84,23</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-70,96; 120,16</t>
+          <t>-72,83; 114,56</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-26,7; 376,67</t>
+          <t>-23,99; 439,27</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-88,95; 69,74</t>
+          <t>-86,96; 84,23</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-70,96; 120,16</t>
+          <t>-72,83; 114,56</t>
         </is>
       </c>
     </row>
@@ -1564,32 +1564,32 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-3,45; -0,6</t>
+          <t>-3,58; -0,58</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 0,42</t>
+          <t>-2,81; 0,42</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-3,1; -0,06</t>
+          <t>-3,06; 0,06</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-3,45; -0,6</t>
+          <t>-3,58; -0,58</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 0,42</t>
+          <t>-2,81; 0,42</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-3,1; -0,06</t>
+          <t>-3,06; 0,06</t>
         </is>
       </c>
     </row>
@@ -1670,32 +1670,32 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -4,82</t>
+          <t>-100,0; 34,24</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-91,23; 63,15</t>
+          <t>-91,85; 82,08</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-91,04; 10,11</t>
+          <t>-91,06; 26,78</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -4,82</t>
+          <t>-100,0; 34,24</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-91,23; 63,15</t>
+          <t>-91,85; 82,08</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-91,04; 10,11</t>
+          <t>-91,06; 26,78</t>
         </is>
       </c>
     </row>
@@ -1780,32 +1780,32 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,84</t>
+          <t>0,0; 1,52</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,9</t>
+          <t>0,0; 1,64</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,65</t>
+          <t>0,0; 0,61</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,84</t>
+          <t>0,0; 1,52</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,9</t>
+          <t>0,0; 1,64</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,65</t>
+          <t>0,0; 0,61</t>
         </is>
       </c>
     </row>
@@ -1996,32 +1996,32 @@
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 0,0</t>
+          <t>-2,12; 0,0</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 1,37</t>
+          <t>-1,27; 1,35</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 0,54</t>
+          <t>-1,81; 0,53</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 0,0</t>
+          <t>-2,12; 0,0</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 1,37</t>
+          <t>-1,27; 1,35</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 0,54</t>
+          <t>-1,81; 0,53</t>
         </is>
       </c>
     </row>
@@ -2212,32 +2212,32 @@
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 0,3</t>
+          <t>-0,49; 0,33</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 0,16</t>
+          <t>-0,6; 0,13</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-0,67; -0,0</t>
+          <t>-0,66; 0,01</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 0,3</t>
+          <t>-0,49; 0,33</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 0,16</t>
+          <t>-0,6; 0,13</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-0,67; -0,0</t>
+          <t>-0,66; 0,01</t>
         </is>
       </c>
     </row>
@@ -2318,32 +2318,32 @@
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-54,96; 68,14</t>
+          <t>-52,21; 60,55</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-63,32; 35,9</t>
+          <t>-63,95; 26,15</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-66,64; 4,1</t>
+          <t>-68,03; 5,26</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-54,96; 68,14</t>
+          <t>-52,21; 60,55</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-63,32; 35,9</t>
+          <t>-63,95; 26,15</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-66,64; 4,1</t>
+          <t>-68,03; 5,26</t>
         </is>
       </c>
     </row>
